--- a/getPictures/template.xlsx
+++ b/getPictures/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -272,9 +272,6 @@
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/547144923158.html?spm=a262uh.11734178.favorite-offers-offer-list-offer6.2.658b2ef6SrAtHo</t>
   </si>
   <si>
     <t>成本清算</t>
@@ -845,21 +842,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="26" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,66 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1272,112 +1269,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+    <row r="1" spans="1:18" ht="20.399999999999999">
+      <c r="A1" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="71" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:18" ht="57" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="51"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
     </row>
-    <row r="5" spans="1:18" ht="16.5">
+    <row r="5" spans="1:18" ht="15.6">
       <c r="A5" s="20">
         <v>29</v>
       </c>
@@ -1387,11 +1384,11 @@
       <c r="C5" s="21">
         <v>5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="69">
         <f>B5*D4+E4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="22">
         <f>(A5+C5+D5)</f>
         <v>34</v>
@@ -1415,7 +1412,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5">
+    <row r="6" spans="1:18" ht="15.6">
       <c r="A6" s="18"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1430,15 +1427,15 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="16.5">
+    <row r="7" spans="1:18" ht="16.2">
       <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="67">
         <f>(A5+C5)/J5</f>
         <v>5.3125</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="J7" s="6"/>
@@ -1446,15 +1443,15 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="16.5">
+    <row r="8" spans="1:18" ht="16.2">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="67">
         <f>D5/J5</f>
         <v>0</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="68"/>
       <c r="E8" s="8"/>
       <c r="F8" s="28"/>
       <c r="G8" s="4"/>
@@ -1465,15 +1462,15 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="16.5">
+    <row r="9" spans="1:18" ht="16.2">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="67">
         <f>F5/J5</f>
         <v>5.3125</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="17"/>
       <c r="E9" s="13"/>
       <c r="I9" s="9"/>
@@ -1482,22 +1479,22 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5">
+    <row r="10" spans="1:18" ht="16.2">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="67">
         <f>K5-B9</f>
         <v>1.111321039903264</v>
       </c>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="12" spans="1:18" ht="27">
+      <c r="C10" s="67"/>
+    </row>
+    <row r="12" spans="1:18" ht="28.8">
       <c r="L12" s="38" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>44</v>
@@ -1578,12 +1575,12 @@
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="62">
         <f>B14-K5</f>
         <v>2.5695284159613054</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
@@ -1629,17 +1626,17 @@
       <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
@@ -1648,20 +1645,20 @@
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="76" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
@@ -1670,22 +1667,22 @@
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="79" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79" t="s">
+      <c r="G22" s="61"/>
+      <c r="H22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="79"/>
+      <c r="I22" s="61"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
@@ -1694,10 +1691,10 @@
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
     </row>
-    <row r="23" spans="1:18" ht="57">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
+    <row r="23" spans="1:18" ht="72">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1721,7 @@
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="33" t="s">
         <v>39</v>
       </c>
@@ -1797,16 +1794,16 @@
       <c r="R28" s="40"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
       <c r="N29" s="39"/>
@@ -1815,20 +1812,20 @@
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
     </row>
-    <row r="30" spans="1:18" ht="28.5">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:18" ht="24">
+      <c r="A30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="35" t="s">
         <v>25</v>
       </c>
@@ -1840,10 +1837,10 @@
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
     </row>
-    <row r="31" spans="1:18" ht="57">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+    <row r="31" spans="1:18" ht="60">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="29" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1862,7 @@
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="30" t="s">
         <v>28</v>
       </c>
@@ -4987,18 +4984,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:C23"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -5014,6 +4999,18 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:C23"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5029,62 +5026,62 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="79" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="79"/>
-    </row>
-    <row r="4" spans="1:9" ht="57">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" ht="72">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="33" t="s">
         <v>39</v>
       </c>
@@ -5134,39 +5131,39 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5">
-      <c r="A11" s="64" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="24">
+      <c r="A11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="71.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
+    <row r="12" spans="1:9" ht="72">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="29" t="s">
         <v>26</v>
       </c>
@@ -5181,7 +5178,7 @@
       </c>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="30" t="s">
         <v>28</v>
       </c>
@@ -5229,19 +5226,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="41" t="s">
-        <v>49</v>
-      </c>
+      <c r="B1" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
